--- a/A.xlsx
+++ b/A.xlsx
@@ -31,16 +31,16 @@
     <t>A</t>
   </si>
   <si>
-    <t>21-4</t>
-  </si>
-  <si>
-    <t>@@aa89a39a088839f0af7430c0aeb6ab96a7762f65f3fb5512f8883ce2bea3e809</t>
+    <t>17;5-5</t>
+  </si>
+  <si>
+    <t>@@cd52441edf5a3607d758278521e982bece7beddc9fe4b5137ada5b624c21a131</t>
   </si>
   <si>
     <t>光辉</t>
   </si>
   <si>
-    <t>@551daad21002713bdc4941c4af4f24ba</t>
+    <t>@d3b14c329fa2497b93bb61b45c2062a3</t>
   </si>
 </sst>
 </file>
